--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251005_201407.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251005_201407.xlsx
@@ -5259,7 +5259,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
